--- a/docs/assets/disciplinas/LOT2002.xlsx
+++ b/docs/assets/disciplinas/LOT2002.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Dotar os alunos dos conhecimentos de biologia celular abrangendo a organização estrutural e molecular da célula, proporcionando os conhecimentos básicos de biologia geral necessários à compreensão das demais disciplinas correlacionadas do curso de Engenharia Bioquímica.</t>
+    <t>1304060 - Maria das Graças de Almeida Felipe</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,61 +79,49 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>1304060 - Maria das Graças de Almeida Felipe</t>
+    <t>Programa resumido:</t>
+  </si>
+  <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>Cellular origin and evolution; structural analysis of cells; internal organization of cells.</t>
+  </si>
+  <si>
+    <t>Programa:</t>
+  </si>
+  <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Origin and evolution of cells: basic concepts of systematic and molecular phylogeny, characteristics of the three domains. Structural analysis of cells at the microscope: optical and electronic microscopy.Internal organization of cells:Prokaryotic and eukaryotic cells; structure and transport through the membranes; intracelular compartments (nucleus, rough and smooth endoplasmic reticulum, golgi complex; lysosomes and peroxisomes) and protein addressing; intracellular traffic of vesicles (secretory and endocytic pathway); energy conversion (mitochondria and chloroplast); cellular communication and signalization; cytoskeleton; cellular cycle and division (mitosis and meiosis); extracellular matrix and vegetal cell wall.</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
   </si>
   <si>
     <t>8853480 - Tatiane da Franca Silva</t>
   </si>
   <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>Origem e evolução das células; análise estrutural das células; organização interna das células.</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>Cellular origin and evolution; structural analysis of cells; internal organization of cells.</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>Origem e evolução das células: Conceitos básicos de sistemática e filogenia molecular, características dos três domínios. –Análise estrutural das células ao microscópio: Microscopia ótica e microscopia eletrônica.–Organização interna das células: Células procarióticas e eucarióticas; estrutura e transporte através das membranas; compartimentos intracelulares (núcleo, retículo endoplasmático rugoso e liso, complexo de golgi, lisossomos e peroxissomos) e endereçamento de proteínas; tráfego intracelular de vesículas (via secretora e endocítica); conversão de energia (mitocôndria e cloroplasto); comunicação e sinalização celular; citoesqueleto; ciclo e divisão celular (mitose e meiose); matriz extracelulares e parede celular vegetal.</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>Origin and evolution of cells: basic concepts of systematic and molecular phylogeny, characteristics of the three domains. Structural analysis of cells at the microscope: optical and electronic microscopy.Internal organization of cells:Prokaryotic and eukaryotic cells; structure and transport through the membranes; intracelular compartments (nucleus, rough and smooth endoplasmic reticulum, golgi complex; lysosomes and peroxisomes) and protein addressing; intracellular traffic of vesicles (secretory and endocytic pathway); energy conversion (mitochondria and chloroplast); cellular communication and signalization; cytoskeleton; cellular cycle and division (mitosis and meiosis); extracellular matrix and vegetal cell wall.</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
+    <t>Critério:</t>
   </si>
   <si>
     <t>Duas provas escritas (P1 e P2) distribuídas no semestre.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>MF=Média finalMF = (P1 + P2) / 2</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Nota final (NF)NF = (MF + PR)/2, onde PR é uma prova de recuperação. Prova de recuperação (PR) para alunos com Média Final maior ou igual a 3,0 e menor do que 5,0. Será considerado aprovado o aluno que tenha obtido Nota Final igual ou maior do que 5,0.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>- Alberts, B., et al. Biologia Molecular da Célula, 5ed. Artmed Editora Ltda, 2010 - Cooper, G. M., Robert, E.H. A célula: uma abordagem molecular. Artmed Editora Ltda, 3° Ed. 2007.- Wasserman, S.A.; Minorsky, P.V.; Jackson, R.; Reece, J.; Cain, M.; Urry, L. Biologia de Campbell. Artmed Editora. 8 a  Edição. 2010. - Lodish, H.; Berk, A.; Matsudaira, P.; Kaiser, C. A.; Krieger, M.; Scott, M. P.; Zipurky; Darnell. Biologia Celular e Molecular. 5ª Edição. Editora Artmed, 2005.- Raven, P. H., Evert, S. E. Biologia vegetal. Editora Guanabara Koogan, 2007.- Madigan, M.T.; Martinko, J.M.; Bender, K.S.; Buckley, D.H.; Stahl, D.A. Microbiologia de Brock. Editora Artmed, 14a Edição, 2016. - Brock, T. D. ; Madigan, M.T.; Martinko, J.M.; Dunlap, P.; Clark, D. Biology of Microorganisms. Pearson Education.12a  Edição. 2009.- De Roberts, E.M.F.; Hibs, J. Bases da biologia celular e molecular. Editora Guanabara Koogan, 2006.</t>
   </si>
 </sst>
 </file>
@@ -489,7 +477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -614,34 +602,40 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="60" customHeight="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -652,30 +646,30 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="120" customHeight="1">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="60" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -690,7 +684,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
+    <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
@@ -699,28 +693,6 @@
       </c>
       <c r="C21" s="3" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="60" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="120" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOT2002.xlsx
+++ b/docs/assets/disciplinas/LOT2002.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,18 +70,27 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Dotar os alunos dos conhecimentos de biologia celular abrangendo a organização estrutural e molecular da célula, proporcionando os conhecimentos básicos de biologia geral necessários à compreensão das demais disciplinas correlacionadas do curso de Engenharia Bioquímica.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>1304060 - Maria das Graças de Almeida Felipe</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
+    <t>8853480 - Tatiane da Franca Silva</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
+    <t>Origem e evolução das células; análise estrutural das células; organização interna das células.</t>
+  </si>
+  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
@@ -91,6 +100,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>Origem e evolução das células: Conceitos básicos de sistemática e filogenia molecular, características dos três domínios. –Análise estrutural das células ao microscópio: Microscopia ótica e microscopia eletrônica.–Organização interna das células: Células procarióticas e eucarióticas; estrutura e transporte através das membranas; compartimentos intracelulares (núcleo, retículo endoplasmático rugoso e liso, complexo de golgi, lisossomos e peroxissomos) e endereçamento de proteínas; tráfego intracelular de vesículas (via secretora e endocítica); conversão de energia (mitocôndria e cloroplasto); comunicação e sinalização celular; citoesqueleto; ciclo e divisão celular (mitose e meiose); matriz extracelulares e parede celular vegetal.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -103,25 +115,25 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>8853480 - Tatiane da Franca Silva</t>
+    <t>Duas provas escritas (P1 e P2) distribuídas no semestre.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Duas provas escritas (P1 e P2) distribuídas no semestre.</t>
+    <t>MF=Média finalMF = (P1 + P2) / 2</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>MF=Média finalMF = (P1 + P2) / 2</t>
+    <t>Nota final (NF)NF = (MF + PR)/2, onde PR é uma prova de recuperação. Prova de recuperação (PR) para alunos com Média Final maior ou igual a 3,0 e menor do que 5,0. Será considerado aprovado o aluno que tenha obtido Nota Final igual ou maior do que 5,0.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Nota final (NF)NF = (MF + PR)/2, onde PR é uma prova de recuperação. Prova de recuperação (PR) para alunos com Média Final maior ou igual a 3,0 e menor do que 5,0. Será considerado aprovado o aluno que tenha obtido Nota Final igual ou maior do que 5,0.</t>
+    <t>- Alberts, B., et al. Biologia Molecular da Célula, 5ed. Artmed Editora Ltda, 2010 - Cooper, G. M., Robert, E.H. A célula: uma abordagem molecular. Artmed Editora Ltda, 3° Ed. 2007.- Wasserman, S.A.; Minorsky, P.V.; Jackson, R.; Reece, J.; Cain, M.; Urry, L. Biologia de Campbell. Artmed Editora. 8 a  Edição. 2010. - Lodish, H.; Berk, A.; Matsudaira, P.; Kaiser, C. A.; Krieger, M.; Scott, M. P.; Zipurky; Darnell. Biologia Celular e Molecular. 5ª Edição. Editora Artmed, 2005.- Raven, P. H., Evert, S. E. Biologia vegetal. Editora Guanabara Koogan, 2007.- Madigan, M.T.; Martinko, J.M.; Bender, K.S.; Buckley, D.H.; Stahl, D.A. Microbiologia de Brock. Editora Artmed, 14a Edição, 2016. - Brock, T. D. ; Madigan, M.T.; Martinko, J.M.; Dunlap, P.; Clark, D. Biology of Microorganisms. Pearson Education.12a  Edição. 2009.- De Roberts, E.M.F.; Hibs, J. Bases da biologia celular e molecular. Editora Guanabara Koogan, 2006.</t>
   </si>
 </sst>
 </file>
@@ -477,13 +489,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -602,40 +614,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -646,30 +652,30 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -684,7 +690,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
@@ -693,6 +699,28 @@
       </c>
       <c r="C21" s="3" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="60" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
